--- a/test-forum/src/test/resources/data/User.xlsx
+++ b/test-forum/src/test/resources/data/User.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
     </row>
     <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>

--- a/test-forum/src/test/resources/data/User.xlsx
+++ b/test-forum/src/test/resources/data/User.xlsx
@@ -120,12 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +438,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -481,7 +484,9 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="3">
+        <v>43104</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -497,7 +502,9 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="3">
+        <v>43105</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -513,7 +520,9 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="3">
+        <v>43104</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
   </sheetData>

--- a/test-forum/src/test/resources/data/User.xlsx
+++ b/test-forum/src/test/resources/data/User.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="T_USER" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -55,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,10 +223,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,7 +257,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,24 +432,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.25">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -484,12 +482,10 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
-        <v>43104</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.25">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -502,12 +498,10 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>43105</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.25">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -520,9 +514,7 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>43104</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
   </sheetData>
